--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,9 @@
   <si>
     <t>git gui简单使用方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED显示屏知识完整教程资料</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A2:B261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -954,82 +957,85 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>

--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,14 @@
   </si>
   <si>
     <t>LED显示屏知识完整教程资料</t>
+  </si>
+  <si>
+    <t>usb2.0 引脚定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascii 码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -570,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -969,10 +977,16 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
+      <c r="B50" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>ascii 码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBT 28169-2011 嵌入式软件 C语言编码规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式C语言编程规范（个人规约）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux内存管理（最透彻的一篇）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -993,15 +1005,24 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
+      <c r="B52" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="53" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="54" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,17 @@
   </si>
   <si>
     <t>Linux内存管理（最透彻的一篇）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu 开启 root 用户并开启 ssh 远程访问权限</t>
+  </si>
+  <si>
+    <t>嵌入式arm开发环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机指令集以及对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1029,15 +1040,24 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
+      <c r="B55" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="57" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02172783-4BCF-4A62-AC23-034F8F53F7C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,13 +232,17 @@
   </si>
   <si>
     <t>计算机指令集以及对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 使用中文教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,6 +313,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -355,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,9 +396,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,6 +448,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,21 +640,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="155" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -620,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -628,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -636,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -644,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -652,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -660,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -668,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -676,7 +718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -684,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -692,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -700,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -708,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -716,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -724,7 +766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -732,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -740,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -748,7 +790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -756,7 +798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -764,7 +806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -772,7 +814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -780,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -788,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -796,7 +838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -804,7 +846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -812,7 +854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -820,7 +862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -828,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -836,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -844,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -852,7 +894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -860,7 +902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -868,7 +910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -876,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -884,7 +926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -892,7 +934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -900,7 +942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -908,7 +950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -916,7 +958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -924,7 +966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -932,7 +974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -940,7 +982,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -948,7 +990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -956,7 +998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -964,7 +1006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -972,7 +1014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -980,7 +1022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -988,7 +1030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -996,7 +1038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1004,7 +1046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1012,7 +1054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1020,7 +1062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1028,7 +1070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1036,7 +1078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1044,7 +1086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1052,7 +1094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1060,1022 +1102,1025 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -2088,12 +2133,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,12 +2146,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02172783-4BCF-4A62-AC23-034F8F53F7C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20C59C-B4CC-42EA-BCBD-959F52A1428B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>git 使用中文教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase 与 merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决sourceinsight打开visual space后乱码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序编译运行简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,18 +655,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="155" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -662,7 +674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20.25" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -670,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="20.25" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -678,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="20.25" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -686,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="20.25" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -694,7 +706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="20.25" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -702,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -710,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="20.25" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -718,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="20.25" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -726,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="20.25" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -734,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -742,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -750,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -758,7 +770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -766,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -774,7 +786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -782,7 +794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -790,7 +802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -798,7 +810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -806,7 +818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -814,7 +826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -822,7 +834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -830,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -838,7 +850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -846,7 +858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="20.25" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -854,7 +866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="20.25" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -862,7 +874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="20.25" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -870,7 +882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="20.25" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -878,7 +890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="20.25" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -886,7 +898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="20.25" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -894,7 +906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="20.25" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -902,7 +914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="20.25" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -910,7 +922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="20.25" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -918,7 +930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="20.25" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -926,7 +938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="20.25" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -934,7 +946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="20.25" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -942,7 +954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="20.25" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -950,7 +962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="20.25" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -958,7 +970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="20.25" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -966,7 +978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="20.25" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -974,7 +986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="20.25" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -982,7 +994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="20.25" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="20.25" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="20.25" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1006,7 +1018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="20.25" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1014,7 +1026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="20.25" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="20.25" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="20.25" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="20.25" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1046,7 +1058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="20.25" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="20.25" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="20.25" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="20.25" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1078,7 +1090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="20.25" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="20.25" customHeight="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1094,7 +1106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="20.25" customHeight="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="20.25" customHeight="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1110,1017 +1122,1026 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="20.25" customHeight="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="20.25" customHeight="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="20.25" customHeight="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="20.25" customHeight="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="20.25" customHeight="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="20.25" customHeight="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="20.25" customHeight="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="20.25" customHeight="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="20.25" customHeight="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="20.25" customHeight="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="20.25" customHeight="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="20.25" customHeight="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="20.25" customHeight="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="20.25" customHeight="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="20.25" customHeight="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="20.25" customHeight="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="20.25" customHeight="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="20.25" customHeight="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="20.25" customHeight="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="20.25" customHeight="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="20.25" customHeight="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="20.25" customHeight="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="20.25" customHeight="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="20.25" customHeight="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="20.25" customHeight="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="20.25" customHeight="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="20.25" customHeight="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="20.25" customHeight="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="20.25" customHeight="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="20.25" customHeight="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="20.25" customHeight="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="20.25" customHeight="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="20.25" customHeight="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="20.25" customHeight="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="20.25" customHeight="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="20.25" customHeight="1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="20.25" customHeight="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="20.25" customHeight="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="20.25" customHeight="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="20.25" customHeight="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="20.25" customHeight="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="20.25" customHeight="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="20.25" customHeight="1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="20.25" customHeight="1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="20.25" customHeight="1">
       <c r="A103" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="20.25" customHeight="1">
       <c r="A104" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="20.25" customHeight="1">
       <c r="A105" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="20.25" customHeight="1">
       <c r="A106" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="20.25" customHeight="1">
       <c r="A107" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="20.25" customHeight="1">
       <c r="A108" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="20.25" customHeight="1">
       <c r="A109" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="20.25" customHeight="1">
       <c r="A110" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="20.25" customHeight="1">
       <c r="A111" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="20.25" customHeight="1">
       <c r="A112" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="20.25" customHeight="1">
       <c r="A113" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="20.25" customHeight="1">
       <c r="A114" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="20.25" customHeight="1">
       <c r="A115" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="20.25" customHeight="1">
       <c r="A116" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="20.25" customHeight="1">
       <c r="A117" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="20.25" customHeight="1">
       <c r="A118" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="20.25" customHeight="1">
       <c r="A119" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="20.25" customHeight="1">
       <c r="A120" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="20.25" customHeight="1">
       <c r="A121" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="20.25" customHeight="1">
       <c r="A122" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="20.25" customHeight="1">
       <c r="A123" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="20.25" customHeight="1">
       <c r="A124" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="20.25" customHeight="1">
       <c r="A125" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="20.25" customHeight="1">
       <c r="A126" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="20.25" customHeight="1">
       <c r="A127" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="20.25" customHeight="1">
       <c r="A128" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="20.25" customHeight="1">
       <c r="A129" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="20.25" customHeight="1">
       <c r="A130" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="20.25" customHeight="1">
       <c r="A131" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="20.25" customHeight="1">
       <c r="A132" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="20.25" customHeight="1">
       <c r="A133" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="20.25" customHeight="1">
       <c r="A134" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="20.25" customHeight="1">
       <c r="A135" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="20.25" customHeight="1">
       <c r="A136" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="20.25" customHeight="1">
       <c r="A137" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="20.25" customHeight="1">
       <c r="A138" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="20.25" customHeight="1">
       <c r="A139" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="20.25" customHeight="1">
       <c r="A140" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="20.25" customHeight="1">
       <c r="A141" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="20.25" customHeight="1">
       <c r="A142" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="20.25" customHeight="1">
       <c r="A143" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="20.25" customHeight="1">
       <c r="A144" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="20.25" customHeight="1">
       <c r="A145" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="20.25" customHeight="1">
       <c r="A146" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="20.25" customHeight="1">
       <c r="A147" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="20.25" customHeight="1">
       <c r="A148" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="20.25" customHeight="1">
       <c r="A149" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="20.25" customHeight="1">
       <c r="A150" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" ht="20.25" customHeight="1">
       <c r="A151" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="20.25" customHeight="1">
       <c r="A152" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="20.25" customHeight="1">
       <c r="A153" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="20.25" customHeight="1">
       <c r="A154" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="20.25" customHeight="1">
       <c r="A155" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" ht="20.25" customHeight="1">
       <c r="A156" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="20.25" customHeight="1">
       <c r="A157" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" ht="20.25" customHeight="1">
       <c r="A158" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" ht="20.25" customHeight="1">
       <c r="A159" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" ht="20.25" customHeight="1">
       <c r="A160" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" ht="20.25" customHeight="1">
       <c r="A161" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" ht="20.25" customHeight="1">
       <c r="A162" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" ht="20.25" customHeight="1">
       <c r="A163" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" ht="20.25" customHeight="1">
       <c r="A164" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" ht="20.25" customHeight="1">
       <c r="A165" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" ht="20.25" customHeight="1">
       <c r="A166" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" ht="20.25" customHeight="1">
       <c r="A167" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" ht="20.25" customHeight="1">
       <c r="A168" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" ht="20.25" customHeight="1">
       <c r="A169" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="20.25" customHeight="1">
       <c r="A170" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" ht="20.25" customHeight="1">
       <c r="A171" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="20.25" customHeight="1">
       <c r="A172" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" ht="20.25" customHeight="1">
       <c r="A173" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" ht="20.25" customHeight="1">
       <c r="A174" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" ht="20.25" customHeight="1">
       <c r="A175" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" ht="20.25" customHeight="1">
       <c r="A176" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="20.25" customHeight="1">
       <c r="A177" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="20.25" customHeight="1">
       <c r="A178" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="20.25" customHeight="1">
       <c r="A179" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" ht="20.25" customHeight="1">
       <c r="A180" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="20.25" customHeight="1">
       <c r="A181" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="20.25" customHeight="1">
       <c r="A182" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="20.25" customHeight="1">
       <c r="A183" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="20.25" customHeight="1">
       <c r="A184" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="20.25" customHeight="1">
       <c r="A185" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="20.25" customHeight="1">
       <c r="A186" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="20.25" customHeight="1">
       <c r="A187" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="20.25" customHeight="1">
       <c r="A188" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="20.25" customHeight="1">
       <c r="A189" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="20.25" customHeight="1">
       <c r="A190" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="20.25" customHeight="1">
       <c r="A191" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="20.25" customHeight="1">
       <c r="A192" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="20.25" customHeight="1">
       <c r="A193" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="20.25" customHeight="1">
       <c r="A194" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="20.25" customHeight="1">
       <c r="A195" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="20.25" customHeight="1">
       <c r="A196" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="20.25" customHeight="1">
       <c r="A197" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="20.25" customHeight="1">
       <c r="A198" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="20.25" customHeight="1">
       <c r="A199" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="20.25" customHeight="1">
       <c r="A200" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="20.25" customHeight="1">
       <c r="A201" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="20.25" customHeight="1">
       <c r="A202" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="20.25" customHeight="1">
       <c r="A203" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="20.25" customHeight="1">
       <c r="A204" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="20.25" customHeight="1">
       <c r="A205" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="20.25" customHeight="1">
       <c r="A206" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" ht="20.25" customHeight="1">
       <c r="A207" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="20.25" customHeight="1">
       <c r="A208" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="20.25" customHeight="1">
       <c r="A209" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="20.25" customHeight="1">
       <c r="A210" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="20.25" customHeight="1">
       <c r="A211" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="20.25" customHeight="1">
       <c r="A212" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="20.25" customHeight="1">
       <c r="A213" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="20.25" customHeight="1">
       <c r="A214" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" ht="20.25" customHeight="1">
       <c r="A215" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" ht="20.25" customHeight="1">
       <c r="A216" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" ht="20.25" customHeight="1">
       <c r="A217" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" ht="20.25" customHeight="1">
       <c r="A218" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" ht="20.25" customHeight="1">
       <c r="A219" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="20.25" customHeight="1">
       <c r="A220" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" ht="20.25" customHeight="1">
       <c r="A221" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" ht="20.25" customHeight="1">
       <c r="A222" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" ht="20.25" customHeight="1">
       <c r="A223" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="20.25" customHeight="1">
       <c r="A224" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="20.25" customHeight="1">
       <c r="A225" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="20.25" customHeight="1">
       <c r="A226" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="20.25" customHeight="1">
       <c r="A227" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" ht="20.25" customHeight="1">
       <c r="A228" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="20.25" customHeight="1">
       <c r="A229" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" ht="20.25" customHeight="1">
       <c r="A230" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="20.25" customHeight="1">
       <c r="A231" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="20.25" customHeight="1">
       <c r="A232" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="20.25" customHeight="1">
       <c r="A233" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" ht="20.25" customHeight="1">
       <c r="A234" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" ht="20.25" customHeight="1">
       <c r="A235" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="20.25" customHeight="1">
       <c r="A236" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" ht="20.25" customHeight="1">
       <c r="A237" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="20.25" customHeight="1">
       <c r="A238" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" ht="20.25" customHeight="1">
       <c r="A239" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="20.25" customHeight="1">
       <c r="A240" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" ht="20.25" customHeight="1">
       <c r="A241" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" ht="20.25" customHeight="1">
       <c r="A242" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" ht="20.25" customHeight="1">
       <c r="A243" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" ht="20.25" customHeight="1">
       <c r="A244" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" ht="20.25" customHeight="1">
       <c r="A245" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" ht="20.25" customHeight="1">
       <c r="A246" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" ht="20.25" customHeight="1">
       <c r="A247" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" ht="20.25" customHeight="1">
       <c r="A248" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" ht="20.25" customHeight="1">
       <c r="A249" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" ht="20.25" customHeight="1">
       <c r="A250" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" ht="20.25" customHeight="1">
       <c r="A251" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="20.25" customHeight="1">
       <c r="A252" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" ht="20.25" customHeight="1">
       <c r="A253" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" ht="20.25" customHeight="1">
       <c r="A254" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" ht="20.25" customHeight="1">
       <c r="A255" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" ht="20.25" customHeight="1">
       <c r="A256" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" ht="20.25" customHeight="1">
       <c r="A257" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" ht="20.25" customHeight="1">
       <c r="A258" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" ht="20.25" customHeight="1">
       <c r="A259" s="1">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" ht="20.25" customHeight="1">
       <c r="A260" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" ht="20.25" customHeight="1">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -2128,7 +2149,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2138,7 +2159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2151,7 +2172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20C59C-B4CC-42EA-BCBD-959F52A1428B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2390EBD5-9F4A-4E89-893A-8C8510F0945C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,13 +249,20 @@
   <si>
     <t>程序编译运行简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEPROM emulation - flash 模拟 eeprom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Community Book 中文版</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,18 +662,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="155" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -674,7 +681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" customHeight="1">
+    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -682,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" customHeight="1">
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -690,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25" customHeight="1">
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -698,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25" customHeight="1">
+    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -706,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.25" customHeight="1">
+    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -714,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -722,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25" customHeight="1">
+    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -730,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25" customHeight="1">
+    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -738,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25" customHeight="1">
+    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -746,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25" customHeight="1">
+    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -754,7 +761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.25" customHeight="1">
+    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -762,7 +769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.25" customHeight="1">
+    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -770,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.25" customHeight="1">
+    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -778,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25" customHeight="1">
+    <row r="16" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -786,7 +793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.25" customHeight="1">
+    <row r="17" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -794,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.25" customHeight="1">
+    <row r="18" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -802,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.25" customHeight="1">
+    <row r="19" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -810,7 +817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.25" customHeight="1">
+    <row r="20" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -818,7 +825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.25" customHeight="1">
+    <row r="21" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -826,7 +833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.25" customHeight="1">
+    <row r="22" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -834,7 +841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.25" customHeight="1">
+    <row r="23" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -842,7 +849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.25" customHeight="1">
+    <row r="24" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -850,7 +857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.25" customHeight="1">
+    <row r="25" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -858,7 +865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.25" customHeight="1">
+    <row r="26" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -866,7 +873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.25" customHeight="1">
+    <row r="27" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -874,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20.25" customHeight="1">
+    <row r="28" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -882,7 +889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20.25" customHeight="1">
+    <row r="29" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -890,7 +897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20.25" customHeight="1">
+    <row r="30" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -898,7 +905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.25" customHeight="1">
+    <row r="31" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -906,7 +913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20.25" customHeight="1">
+    <row r="32" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -914,7 +921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.25" customHeight="1">
+    <row r="33" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -922,7 +929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.25" customHeight="1">
+    <row r="34" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -930,7 +937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.25" customHeight="1">
+    <row r="35" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -938,7 +945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.25" customHeight="1">
+    <row r="36" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -946,7 +953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20.25" customHeight="1">
+    <row r="37" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -954,7 +961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20.25" customHeight="1">
+    <row r="38" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -962,7 +969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20.25" customHeight="1">
+    <row r="39" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -970,7 +977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20.25" customHeight="1">
+    <row r="40" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -978,7 +985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.25" customHeight="1">
+    <row r="41" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -986,7 +993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20.25" customHeight="1">
+    <row r="42" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -994,7 +1001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20.25" customHeight="1">
+    <row r="43" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1002,7 +1009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20.25" customHeight="1">
+    <row r="44" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20.25" customHeight="1">
+    <row r="45" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1018,7 +1025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20.25" customHeight="1">
+    <row r="46" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1026,7 +1033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20.25" customHeight="1">
+    <row r="47" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1034,7 +1041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20.25" customHeight="1">
+    <row r="48" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1042,7 +1049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20.25" customHeight="1">
+    <row r="49" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="20.25" customHeight="1">
+    <row r="50" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1058,7 +1065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.25" customHeight="1">
+    <row r="51" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="20.25" customHeight="1">
+    <row r="52" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20.25" customHeight="1">
+    <row r="53" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="20.25" customHeight="1">
+    <row r="54" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1090,7 +1097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="20.25" customHeight="1">
+    <row r="55" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1098,7 +1105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="20.25" customHeight="1">
+    <row r="56" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1106,7 +1113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="20.25" customHeight="1">
+    <row r="57" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1114,7 +1121,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="20.25" customHeight="1">
+    <row r="58" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="20.25" customHeight="1">
+    <row r="59" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1130,7 +1137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20.25" customHeight="1">
+    <row r="60" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="20.25" customHeight="1">
+    <row r="61" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1146,1002 +1153,1008 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="20.25" customHeight="1">
+    <row r="62" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="20.25" customHeight="1">
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="20.25" customHeight="1">
+      <c r="B63" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="20.25" customHeight="1">
+    <row r="65" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="20.25" customHeight="1">
+    <row r="66" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="20.25" customHeight="1">
+    <row r="67" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="20.25" customHeight="1">
+    <row r="68" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="20.25" customHeight="1">
+    <row r="69" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20.25" customHeight="1">
+    <row r="70" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="20.25" customHeight="1">
+    <row r="71" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="20.25" customHeight="1">
+    <row r="72" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="20.25" customHeight="1">
+    <row r="73" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="20.25" customHeight="1">
+    <row r="74" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="20.25" customHeight="1">
+    <row r="75" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="20.25" customHeight="1">
+    <row r="76" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="20.25" customHeight="1">
+    <row r="77" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20.25" customHeight="1">
+    <row r="78" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="20.25" customHeight="1">
+    <row r="79" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="20.25" customHeight="1">
+    <row r="80" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="20.25" customHeight="1">
+    <row r="81" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="20.25" customHeight="1">
+    <row r="82" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="20.25" customHeight="1">
+    <row r="83" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="20.25" customHeight="1">
+    <row r="84" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="20.25" customHeight="1">
+    <row r="85" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="20.25" customHeight="1">
+    <row r="86" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="20.25" customHeight="1">
+    <row r="87" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="20.25" customHeight="1">
+    <row r="88" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="20.25" customHeight="1">
+    <row r="89" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="20.25" customHeight="1">
+    <row r="90" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="20.25" customHeight="1">
+    <row r="91" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="20.25" customHeight="1">
+    <row r="92" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="20.25" customHeight="1">
+    <row r="93" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="20.25" customHeight="1">
+    <row r="94" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="20.25" customHeight="1">
+    <row r="95" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="20.25" customHeight="1">
+    <row r="96" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="20.25" customHeight="1">
+    <row r="97" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="20.25" customHeight="1">
+    <row r="98" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="20.25" customHeight="1">
+    <row r="99" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="20.25" customHeight="1">
+    <row r="100" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="20.25" customHeight="1">
+    <row r="101" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="20.25" customHeight="1">
+    <row r="102" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="20.25" customHeight="1">
+    <row r="103" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="20.25" customHeight="1">
+    <row r="104" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="20.25" customHeight="1">
+    <row r="105" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="20.25" customHeight="1">
+    <row r="106" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="20.25" customHeight="1">
+    <row r="107" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="20.25" customHeight="1">
+    <row r="108" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="20.25" customHeight="1">
+    <row r="109" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="20.25" customHeight="1">
+    <row r="110" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="20.25" customHeight="1">
+    <row r="111" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="20.25" customHeight="1">
+    <row r="112" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="20.25" customHeight="1">
+    <row r="113" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="20.25" customHeight="1">
+    <row r="114" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="20.25" customHeight="1">
+    <row r="115" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="20.25" customHeight="1">
+    <row r="116" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="20.25" customHeight="1">
+    <row r="117" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="20.25" customHeight="1">
+    <row r="118" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="20.25" customHeight="1">
+    <row r="119" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="20.25" customHeight="1">
+    <row r="120" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="20.25" customHeight="1">
+    <row r="121" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="20.25" customHeight="1">
+    <row r="122" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="20.25" customHeight="1">
+    <row r="123" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="20.25" customHeight="1">
+    <row r="124" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="20.25" customHeight="1">
+    <row r="125" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="20.25" customHeight="1">
+    <row r="126" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="20.25" customHeight="1">
+    <row r="127" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="20.25" customHeight="1">
+    <row r="128" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="20.25" customHeight="1">
+    <row r="129" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="20.25" customHeight="1">
+    <row r="130" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="20.25" customHeight="1">
+    <row r="131" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="20.25" customHeight="1">
+    <row r="132" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="20.25" customHeight="1">
+    <row r="133" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="20.25" customHeight="1">
+    <row r="134" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="20.25" customHeight="1">
+    <row r="135" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="20.25" customHeight="1">
+    <row r="136" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="20.25" customHeight="1">
+    <row r="137" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="20.25" customHeight="1">
+    <row r="138" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="20.25" customHeight="1">
+    <row r="139" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="20.25" customHeight="1">
+    <row r="140" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="20.25" customHeight="1">
+    <row r="141" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="20.25" customHeight="1">
+    <row r="142" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="20.25" customHeight="1">
+    <row r="143" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="20.25" customHeight="1">
+    <row r="144" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="20.25" customHeight="1">
+    <row r="145" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="20.25" customHeight="1">
+    <row r="146" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="20.25" customHeight="1">
+    <row r="147" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="20.25" customHeight="1">
+    <row r="148" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="20.25" customHeight="1">
+    <row r="149" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="20.25" customHeight="1">
+    <row r="150" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="20.25" customHeight="1">
+    <row r="151" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="20.25" customHeight="1">
+    <row r="152" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="20.25" customHeight="1">
+    <row r="153" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="20.25" customHeight="1">
+    <row r="154" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="20.25" customHeight="1">
+    <row r="155" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="20.25" customHeight="1">
+    <row r="156" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="20.25" customHeight="1">
+    <row r="157" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="20.25" customHeight="1">
+    <row r="158" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="20.25" customHeight="1">
+    <row r="159" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="20.25" customHeight="1">
+    <row r="160" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="20.25" customHeight="1">
+    <row r="161" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="20.25" customHeight="1">
+    <row r="162" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="20.25" customHeight="1">
+    <row r="163" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="20.25" customHeight="1">
+    <row r="164" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="20.25" customHeight="1">
+    <row r="165" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="20.25" customHeight="1">
+    <row r="166" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="20.25" customHeight="1">
+    <row r="167" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="20.25" customHeight="1">
+    <row r="168" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="20.25" customHeight="1">
+    <row r="169" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="20.25" customHeight="1">
+    <row r="170" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="20.25" customHeight="1">
+    <row r="171" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="20.25" customHeight="1">
+    <row r="172" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="20.25" customHeight="1">
+    <row r="173" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="20.25" customHeight="1">
+    <row r="174" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="20.25" customHeight="1">
+    <row r="175" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="20.25" customHeight="1">
+    <row r="176" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="20.25" customHeight="1">
+    <row r="177" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="20.25" customHeight="1">
+    <row r="178" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="20.25" customHeight="1">
+    <row r="179" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="20.25" customHeight="1">
+    <row r="180" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="20.25" customHeight="1">
+    <row r="181" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="20.25" customHeight="1">
+    <row r="182" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="20.25" customHeight="1">
+    <row r="183" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="20.25" customHeight="1">
+    <row r="184" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="20.25" customHeight="1">
+    <row r="185" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="20.25" customHeight="1">
+    <row r="186" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="20.25" customHeight="1">
+    <row r="187" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="20.25" customHeight="1">
+    <row r="188" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="20.25" customHeight="1">
+    <row r="189" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="20.25" customHeight="1">
+    <row r="190" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="20.25" customHeight="1">
+    <row r="191" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="20.25" customHeight="1">
+    <row r="192" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="20.25" customHeight="1">
+    <row r="193" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="20.25" customHeight="1">
+    <row r="194" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="20.25" customHeight="1">
+    <row r="195" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="20.25" customHeight="1">
+    <row r="196" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="20.25" customHeight="1">
+    <row r="197" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="20.25" customHeight="1">
+    <row r="198" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="20.25" customHeight="1">
+    <row r="199" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="20.25" customHeight="1">
+    <row r="200" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="20.25" customHeight="1">
+    <row r="201" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="20.25" customHeight="1">
+    <row r="202" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="20.25" customHeight="1">
+    <row r="203" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="20.25" customHeight="1">
+    <row r="204" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="20.25" customHeight="1">
+    <row r="205" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="20.25" customHeight="1">
+    <row r="206" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="20.25" customHeight="1">
+    <row r="207" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="20.25" customHeight="1">
+    <row r="208" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="20.25" customHeight="1">
+    <row r="209" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="20.25" customHeight="1">
+    <row r="210" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="20.25" customHeight="1">
+    <row r="211" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="20.25" customHeight="1">
+    <row r="212" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="20.25" customHeight="1">
+    <row r="213" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="20.25" customHeight="1">
+    <row r="214" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="20.25" customHeight="1">
+    <row r="215" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="20.25" customHeight="1">
+    <row r="216" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="20.25" customHeight="1">
+    <row r="217" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="20.25" customHeight="1">
+    <row r="218" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="20.25" customHeight="1">
+    <row r="219" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="20.25" customHeight="1">
+    <row r="220" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="20.25" customHeight="1">
+    <row r="221" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="20.25" customHeight="1">
+    <row r="222" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="20.25" customHeight="1">
+    <row r="223" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="20.25" customHeight="1">
+    <row r="224" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="20.25" customHeight="1">
+    <row r="225" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="20.25" customHeight="1">
+    <row r="226" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="20.25" customHeight="1">
+    <row r="227" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="20.25" customHeight="1">
+    <row r="228" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="20.25" customHeight="1">
+    <row r="229" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="20.25" customHeight="1">
+    <row r="230" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="20.25" customHeight="1">
+    <row r="231" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="20.25" customHeight="1">
+    <row r="232" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="20.25" customHeight="1">
+    <row r="233" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="20.25" customHeight="1">
+    <row r="234" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="20.25" customHeight="1">
+    <row r="235" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="20.25" customHeight="1">
+    <row r="236" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="20.25" customHeight="1">
+    <row r="237" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="20.25" customHeight="1">
+    <row r="238" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="20.25" customHeight="1">
+    <row r="239" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="20.25" customHeight="1">
+    <row r="240" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="20.25" customHeight="1">
+    <row r="241" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="20.25" customHeight="1">
+    <row r="242" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="20.25" customHeight="1">
+    <row r="243" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="20.25" customHeight="1">
+    <row r="244" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="20.25" customHeight="1">
+    <row r="245" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="20.25" customHeight="1">
+    <row r="246" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="20.25" customHeight="1">
+    <row r="247" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="20.25" customHeight="1">
+    <row r="248" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="20.25" customHeight="1">
+    <row r="249" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="20.25" customHeight="1">
+    <row r="250" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="20.25" customHeight="1">
+    <row r="251" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="20.25" customHeight="1">
+    <row r="252" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="20.25" customHeight="1">
+    <row r="253" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="20.25" customHeight="1">
+    <row r="254" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="20.25" customHeight="1">
+    <row r="255" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="20.25" customHeight="1">
+    <row r="256" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="20.25" customHeight="1">
+    <row r="257" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="20.25" customHeight="1">
+    <row r="258" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="20.25" customHeight="1">
+    <row r="259" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="20.25" customHeight="1">
+    <row r="260" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="20.25" customHeight="1">
+    <row r="261" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -2159,7 +2172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2172,7 +2185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2390EBD5-9F4A-4E89-893A-8C8510F0945C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C11325-C390-4E16-914A-15C0F6B29D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>Git Community Book 中文版</t>
+  </si>
+  <si>
+    <t>软件流程图常用图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32 IO模式介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个软件开发流程简单图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -662,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1173,83 +1185,92 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>

--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C11325-C390-4E16-914A-15C0F6B29D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1F3E9E-CF0C-4959-851A-847414F5DC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>几个软件开发流程简单图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB OTG 引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +679,7 @@
   <dimension ref="A2:B261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1208,6 +1212,9 @@
     <row r="67" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/0000 - 知识积累点.xlsx
+++ b/0000 - 知识积累点.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1F3E9E-CF0C-4959-851A-847414F5DC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94780D7F-F63A-47C9-B600-2422A942F0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>CI 系统持续集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,9 @@
   <si>
     <t>USB OTG 引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式、C语言位操作的一些常见用法归纳</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -1220,6 +1223,9 @@
     <row r="68" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
